--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
     <sheet name="Functions" sheetId="2" r:id="rId2"/>
+    <sheet name="Files" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="84">
   <si>
     <t>Honnan (HTML)</t>
   </si>
@@ -75,16 +76,219 @@
     <t>changepwd.html</t>
   </si>
   <si>
-    <t>User
-List&lt;User&gt;
-List&lt;Place&gt;</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>activated</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>NOT_NULL</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY (role_id) REFERENCES roles(id)</t>
+  </si>
+  <si>
+    <t>DEFAULT false</t>
+  </si>
+  <si>
+    <t>PRIMARY_KEY</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>squash_places</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>place_name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>rent_fee_per_hour_huf</t>
+  </si>
+  <si>
+    <t>VARCHAR(16)</t>
+  </si>
+  <si>
+    <t>matches</t>
+  </si>
+  <si>
+    <t>player1_id</t>
+  </si>
+  <si>
+    <t>player2_id</t>
+  </si>
+  <si>
+    <t>place_id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>CONSTRAINT player1_fk FOREIGN KEY(player1_id) REFERENCES users(id)</t>
+  </si>
+  <si>
+    <t>CONSTRAINT player2_fk FOREIGN KEY(player2_id) REFERENCES users(id)</t>
+  </si>
+  <si>
+    <t>CONSTRAINT place_fk FOREIGN KEY (place_id) REFERENCES squas_places(id)</t>
+  </si>
+  <si>
+    <t>CONSTRAINT check_players_not_the_same CHECK player1_id &lt;&gt; player2_id</t>
+  </si>
+  <si>
+    <t>CONSTRAINT check_players_not_the_same2 CHECK player1_id &lt;&gt; player2_id</t>
+  </si>
+  <si>
+    <t>players</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>score_p2</t>
+  </si>
+  <si>
+    <t>score_p1</t>
+  </si>
+  <si>
+    <t>matches::List&lt;Match&gt;
+places::List&lt;Place&gt;
+players::List&lt;Player&gt;</t>
+  </si>
+  <si>
+    <t>admin::User
+players::List&lt;Player&gt;
+places::List&lt;Place&gt;</t>
+  </si>
+  <si>
+    <t>/filter/player</t>
+  </si>
+  <si>
+    <t>Szűrés játékosra</t>
+  </si>
+  <si>
+    <t>PlayerID</t>
+  </si>
+  <si>
+    <t>/filter/place</t>
+  </si>
+  <si>
+    <t>Szűrés helyszinre</t>
+  </si>
+  <si>
+    <t>PlaceID</t>
+  </si>
+  <si>
+    <t>/logout</t>
+  </si>
+  <si>
+    <t>Kilépés</t>
+  </si>
+  <si>
+    <t>Jelszó frissítése</t>
+  </si>
+  <si>
+    <t>/player/changepwd</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>UserID
+Jelszó</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>/admin/reg/player</t>
+  </si>
+  <si>
+    <t>Játékos regisztrálása</t>
+  </si>
+  <si>
+    <t>Név
+Email</t>
+  </si>
+  <si>
+    <t>message::String</t>
+  </si>
+  <si>
+    <t>/admin/reg/place</t>
+  </si>
+  <si>
+    <t>Helyszín regisztrálása</t>
+  </si>
+  <si>
+    <t>Név
+Cím
+Bérleti díj</t>
+  </si>
+  <si>
+    <t>/admin/reg/match</t>
+  </si>
+  <si>
+    <t>Mérkőzés regisztrálása</t>
+  </si>
+  <si>
+    <t>PlayerID_1
+PlayerID_2
+PlaceID
+ScoreP1
+ScoreP2
+Dátum</t>
+  </si>
+  <si>
+    <t>Felelős</t>
+  </si>
+  <si>
+    <t>Dávid</t>
+  </si>
+  <si>
+    <t>Szilárd</t>
+  </si>
+  <si>
+    <t>Fájl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,16 +306,42 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -128,11 +358,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -143,8 +504,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="40% - 4. jelölőszín" xfId="1" builtinId="43"/>
+    <cellStyle name="40% - 5. jelölőszín" xfId="2" builtinId="47"/>
+    <cellStyle name="40% - 6. jelölőszín" xfId="3" builtinId="51"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,12 +845,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="7" width="27.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1">
+      <c r="A6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1"/>
+    <row r="9" spans="1:7" ht="15" thickBot="1">
+      <c r="A9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="D9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1">
+      <c r="A13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="D13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1"/>
+    <row r="15" spans="1:7" ht="15" thickBot="1">
+      <c r="A15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -450,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -465,9 +1182,10 @@
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
     <col min="7" max="7" width="28.77734375" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="31.2" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +1207,11 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1">
+      <c r="H1" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -512,8 +1233,11 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="39" customHeight="1">
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="39" customHeight="1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -535,27 +1259,298 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="58.8" customHeight="1">
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="58.8" customHeight="1">
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60.6" customHeight="1">
       <c r="F5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54" customHeight="1">
       <c r="F6" t="s">
         <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="63.6" customHeight="1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="48" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="56.4" customHeight="1">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1"/>
+    <row r="12" spans="1:8" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickTop="1"/>
+    <row r="14" spans="1:8" ht="45.6" customHeight="1">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="63.6" customHeight="1">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="100.8" customHeight="1">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.600000000000001" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="25.8" customHeight="1" thickTop="1">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="25.8" customHeight="1">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="25.8" customHeight="1">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="25.8" customHeight="1">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
     <sheet name="Functions" sheetId="2" r:id="rId2"/>
     <sheet name="Files" sheetId="3" r:id="rId3"/>
+    <sheet name="DB_Functions" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
   <si>
     <t>Honnan (HTML)</t>
   </si>
@@ -143,12 +144,6 @@
   </si>
   <si>
     <t>matches</t>
-  </si>
-  <si>
-    <t>player1_id</t>
-  </si>
-  <si>
-    <t>player2_id</t>
   </si>
   <si>
     <t>place_id</t>
@@ -281,14 +276,116 @@
     <t>Szilárd</t>
   </si>
   <si>
-    <t>Fájl</t>
+    <t>player1_email</t>
+  </si>
+  <si>
+    <t>player2_email</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>security_config</t>
+  </si>
+  <si>
+    <t>Function name</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Returns</t>
+  </si>
+  <si>
+    <t>getAllUsers</t>
+  </si>
+  <si>
+    <t>List&lt;User&gt;</t>
+  </si>
+  <si>
+    <t>getUserByName</t>
+  </si>
+  <si>
+    <t>String name</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>addUser</t>
+  </si>
+  <si>
+    <t>User user</t>
+  </si>
+  <si>
+    <t>updateUser</t>
+  </si>
+  <si>
+    <t>removeUser</t>
+  </si>
+  <si>
+    <t>getAllPlaces</t>
+  </si>
+  <si>
+    <t>List&lt;Place&gt;</t>
+  </si>
+  <si>
+    <t>addPlace</t>
+  </si>
+  <si>
+    <t>Place place</t>
+  </si>
+  <si>
+    <t>updatePlace</t>
+  </si>
+  <si>
+    <t>removePlace</t>
+  </si>
+  <si>
+    <t>getAllMatches</t>
+  </si>
+  <si>
+    <t>List&lt;Match&gt;</t>
+  </si>
+  <si>
+    <t>getAllMatchesByUserId</t>
+  </si>
+  <si>
+    <t>int userId</t>
+  </si>
+  <si>
+    <t>getAllMatchesByPlaceId</t>
+  </si>
+  <si>
+    <t>int placeId</t>
+  </si>
+  <si>
+    <t>addMatch</t>
+  </si>
+  <si>
+    <t>Match match</t>
+  </si>
+  <si>
+    <t>updateMatch</t>
+  </si>
+  <si>
+    <t>removeMatch</t>
+  </si>
+  <si>
+    <t>encrypt</t>
+  </si>
+  <si>
+    <t>Fájl / Package</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +409,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -341,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -486,14 +600,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -514,14 +640,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -548,11 +670,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="40% - 4. jelölőszín" xfId="1" builtinId="43"/>
     <cellStyle name="40% - 5. jelölőszín" xfId="2" builtinId="47"/>
     <cellStyle name="40% - 6. jelölőszín" xfId="3" builtinId="51"/>
+    <cellStyle name="Magyarázó szöveg" xfId="4" builtinId="53"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -848,7 +979,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -858,30 +989,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -890,10 +1017,7 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -911,10 +1035,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -932,10 +1053,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="7"/>
@@ -951,28 +1069,27 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1">
-      <c r="A6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
       <c r="G6" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1"/>
     <row r="9" spans="1:7" ht="15" thickBot="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="D9" s="28" t="s">
+      <c r="B9" s="23"/>
+      <c r="D9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
@@ -981,7 +1098,7 @@
       <c r="B10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1048,37 +1165,37 @@
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1"/>
     <row r="15" spans="1:7" ht="15" thickBot="1">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="E16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1101,7 +1218,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1128,13 +1245,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1143,10 +1260,10 @@
     <row r="20" spans="1:7" ht="15" thickBot="1">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1158,7 +1275,7 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1169,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1207,8 +1324,8 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>80</v>
+      <c r="H1" s="21" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1">
@@ -1234,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="39" customHeight="1">
@@ -1260,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="58.8" customHeight="1">
@@ -1268,10 +1385,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60.6" customHeight="1">
@@ -1279,10 +1396,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="54" customHeight="1">
@@ -1290,10 +1407,10 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="63.6" customHeight="1">
@@ -1301,25 +1418,25 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="48" customHeight="1">
@@ -1327,25 +1444,25 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
@@ -1353,13 +1470,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -1371,7 +1488,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="56.4" customHeight="1">
@@ -1379,37 +1496,37 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1"/>
     <row r="12" spans="1:8" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickTop="1"/>
     <row r="14" spans="1:8" ht="45.6" customHeight="1">
@@ -1417,25 +1534,25 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="63.6" customHeight="1">
@@ -1443,25 +1560,25 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="100.8" customHeight="1">
@@ -1469,25 +1586,25 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1498,56 +1615,274 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" customHeight="1" thickTop="1">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" customHeight="1">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" customHeight="1">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.4" customHeight="1">
+      <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.8" customHeight="1" thickTop="1">
+    <row r="7" spans="1:2" ht="29.4" customHeight="1">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29.4" customHeight="1">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.4" customHeight="1">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="3" width="45.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="25.8" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="25.8" customHeight="1">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="25.8" customHeight="1">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEF5D28-53BB-FD4F-9CA4-D8AB2DCEFD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="115">
   <si>
     <t>Honnan (HTML)</t>
   </si>
@@ -159,12 +160,6 @@
   </si>
   <si>
     <t>CONSTRAINT place_fk FOREIGN KEY (place_id) REFERENCES squas_places(id)</t>
-  </si>
-  <si>
-    <t>CONSTRAINT check_players_not_the_same CHECK player1_id &lt;&gt; player2_id</t>
-  </si>
-  <si>
-    <t>CONSTRAINT check_players_not_the_same2 CHECK player1_id &lt;&gt; player2_id</t>
   </si>
   <si>
     <t>players</t>
@@ -380,12 +375,15 @@
   <si>
     <t>Fájl / Package</t>
   </si>
+  <si>
+    <t>CONSTRAINT players_not_the_same CHECK player1_email &lt;&gt; player2_email</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +421,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -619,7 +625,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,11 +637,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -643,15 +646,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,31 +676,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="40% - 4. jelölőszín" xfId="1" builtinId="43"/>
-    <cellStyle name="40% - 5. jelölőszín" xfId="2" builtinId="47"/>
-    <cellStyle name="40% - 6. jelölőszín" xfId="3" builtinId="51"/>
-    <cellStyle name="Magyarázó szöveg" xfId="4" builtinId="53"/>
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent4" xfId="1" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="2" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
+    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -732,7 +739,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -766,6 +773,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -800,9 +808,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -975,111 +984,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="7" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="63.83203125" customWidth="1"/>
+    <col min="3" max="3" width="70.1640625" customWidth="1"/>
+    <col min="4" max="4" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="28" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1"/>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>34</v>
       </c>
@@ -1091,80 +1096,80 @@
       <c r="F9" s="25"/>
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="10"/>
+      <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1"/>
-    <row r="15" spans="1:7" ht="15" thickBot="1">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>41</v>
       </c>
@@ -1175,100 +1180,102 @@
       <c r="F15" s="25"/>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="B16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="17" t="s">
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="10" t="s">
+      <c r="E18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1283,26 +1290,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="31.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1324,11 +1331,11 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1">
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1351,10 +1358,10 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="39" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1377,106 +1384,106 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="58.8" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60.6" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="54" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="63.6" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="48" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="32.4" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -1488,123 +1495,123 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="56.4" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1"/>
-    <row r="12" spans="1:8" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickTop="1"/>
-    <row r="14" spans="1:8" ht="45.6" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="63.6" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="100.8" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="100.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1614,81 +1621,81 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" customHeight="1" thickTop="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="29.4" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>83</v>
       </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="29.4" customHeight="1">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="29.4" customHeight="1">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
       <c r="B8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29.4" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1697,191 +1704,191 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="45.109375" customWidth="1"/>
+    <col min="1" max="3" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="32" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>87</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1">
-      <c r="A2" t="s">
-        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>92</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="33" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>102</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>106</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>108</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" t="s">
-        <v>111</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>6</v>
       </c>
     </row>

--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEF5D28-53BB-FD4F-9CA4-D8AB2DCEFD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F2051B-68EF-5347-BBF5-D8DE8E820E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +460,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -625,7 +631,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -677,6 +683,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent4" xfId="1" builtinId="43"/>
@@ -987,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1624,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1667,10 +1674,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="29" t="s">
         <v>78</v>
       </c>
     </row>

--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F2051B-68EF-5347-BBF5-D8DE8E820E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CEA27F-4FD4-1048-9211-1B6155D18FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1301,7 +1301,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1632,7 +1632,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1650,10 +1650,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="29" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1698,10 +1698,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="29" t="s">
         <v>78</v>
       </c>
     </row>

--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CEA27F-4FD4-1048-9211-1B6155D18FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE7AF59-5EA6-BA4A-A038-2DDAC811B4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +466,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -631,7 +637,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,6 +690,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent4" xfId="1" builtinId="43"/>
@@ -1300,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1406,13 +1419,18 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="60.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="30" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1428,28 +1446,28 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="30" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1631,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1658,10 +1676,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="29" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1715,7 +1733,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE7AF59-5EA6-BA4A-A038-2DDAC811B4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A2883D-342F-C44E-B3DA-FCDFFE9F1D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="116">
   <si>
     <t>Honnan (HTML)</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>CONSTRAINT players_not_the_same CHECK player1_email &lt;&gt; player2_email</t>
+  </si>
+  <si>
+    <t>Dávid (SpringSecurity)</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,12 +469,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -637,7 +634,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,6 +667,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -688,13 +687,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1021,13 +1017,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
@@ -1105,16 +1101,16 @@
     </row>
     <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="D9" s="24" t="s">
+      <c r="B9" s="25"/>
+      <c r="D9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -1166,10 +1162,10 @@
       <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="22" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -1190,15 +1186,15 @@
     </row>
     <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -1313,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1356,55 +1352,55 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
-        <v>78</v>
+      <c r="H3" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1419,18 +1415,18 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="60.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="23" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1446,28 +1442,28 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="23" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1498,28 +1494,28 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="23" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1668,18 +1664,18 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="23" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1692,10 +1688,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="23" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1716,10 +1712,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="23" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1732,7 +1728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>

--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A2883D-342F-C44E-B3DA-FCDFFE9F1D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418A1997-0D6A-FE45-AA8B-32D350B465B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1374,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -1646,7 +1646,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1696,18 +1696,18 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="23" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1749,46 +1749,46 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="23" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1804,24 +1804,24 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1848,46 +1848,46 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="23" t="s">
         <v>6</v>
       </c>
     </row>

--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418A1997-0D6A-FE45-AA8B-32D350B465B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992E5FDE-1990-374C-8F98-377B0F392578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="116">
   <si>
     <t>Honnan (HTML)</t>
   </si>
@@ -634,7 +634,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -693,6 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent4" xfId="1" builtinId="43"/>
@@ -1003,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1180,7 +1181,9 @@
       <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
     </row>
@@ -1309,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1404,13 +1407,18 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="23" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1468,28 +1476,28 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="23" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1558,54 +1566,54 @@
     </row>
     <row r="13" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:8" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="23" t="s">
         <v>77</v>
       </c>
     </row>
